--- a/ETLs/Especificaciones BBDD cluster v.2-Post clusterizacion.xlsx
+++ b/ETLs/Especificaciones BBDD cluster v.2-Post clusterizacion.xlsx
@@ -1417,7 +1417,7 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
